--- a/Excel project.xlsx
+++ b/Excel project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachu\OneDrive\Documents\PROJECTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C2E9B-DA16-46B4-B616-4BC10DF10100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B4F86-7427-4D0B-A4E1-1329EB160BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,15 +333,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +728,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable1</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1145,13 +1144,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3370000</c:v>
+                  <c:v>6250000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7200000</c:v>
+                  <c:v>17060000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4450000</c:v>
+                  <c:v>7140000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1397,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable5</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable5</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2442,7 +2441,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable2</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable2</c:name>
     <c:fmtId val="23"/>
   </c:pivotSource>
   <c:chart>
@@ -3136,7 +3135,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable3</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable3</c:name>
     <c:fmtId val="23"/>
   </c:pivotSource>
   <c:chart>
@@ -3269,8 +3268,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3408,6 +3406,114 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3455,6 +3561,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3474,6 +3585,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3493,6 +3609,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3512,6 +3633,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3531,6 +3657,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3550,6 +3681,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-58FC-456D-9ABB-384E47E5001C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3826,7 +3962,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable4</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable4</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
@@ -4322,6 +4458,94 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:tint val="94000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:shade val="100000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:shade val="78000"/>
+                  <a:satMod val="120000"/>
+                  <a:lumMod val="99000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:tint val="94000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:shade val="100000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:shade val="78000"/>
+                  <a:satMod val="120000"/>
+                  <a:lumMod val="99000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4903,7 +5127,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable5</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5615,7 +5839,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable1</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable1</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5628,7 +5852,9 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst>
                   <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -5643,36 +5869,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
+              <a:rPr lang="en-IN"/>
               <a:t>Total Income by Gender and Region</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18526149037195591"/>
-          <c:y val="5.4534849810440364E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5688,7 +5890,9 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -5713,77 +5917,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5798,77 +5933,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5883,77 +5949,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5968,77 +5965,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6053,77 +5981,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:tint val="94000"/>
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="100000"/>
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="78000"/>
-                  <a:satMod val="120000"/>
-                  <a:lumMod val="99000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6177,7 +6036,49 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="94000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="78000"/>
+                    <a:satMod val="120000"/>
+                    <a:lumMod val="99000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6371,13 +6272,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3370000</c:v>
+                  <c:v>6250000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7200000</c:v>
+                  <c:v>17060000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4450000</c:v>
+                  <c:v>7140000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6624,7 +6525,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable2</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable2</c:name>
     <c:fmtId val="27"/>
   </c:pivotSource>
   <c:chart>
@@ -6741,20 +6642,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6825,20 +6713,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7374,7 +7249,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable3</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable3</c:name>
     <c:fmtId val="27"/>
   </c:pivotSource>
   <c:chart>
@@ -7415,8 +7290,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19390266841644793"/>
-          <c:y val="3.0365995917177018E-2"/>
+          <c:x val="0.20547672426363373"/>
+          <c:y val="3.9448747380691852E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7605,8 +7480,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7696,21 +7570,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:tint val="94000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:shade val="100000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:shade val="78000"/>
                   <a:satMod val="120000"/>
                   <a:lumMod val="99000"/>
@@ -7737,21 +7611,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:tint val="94000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:shade val="100000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:shade val="78000"/>
                   <a:satMod val="120000"/>
                   <a:lumMod val="99000"/>
@@ -7778,21 +7652,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:tint val="94000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:shade val="100000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:shade val="78000"/>
                   <a:satMod val="120000"/>
                   <a:lumMod val="99000"/>
@@ -7819,21 +7693,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:tint val="94000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="100000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:shade val="78000"/>
                   <a:satMod val="120000"/>
                   <a:lumMod val="99000"/>
@@ -7860,21 +7734,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:tint val="94000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:shade val="100000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:shade val="78000"/>
                   <a:satMod val="120000"/>
                   <a:lumMod val="99000"/>
@@ -8453,7 +8327,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bike Sales Data- Excel project (1) (1).xlsx]pivot table!PivotTable4</c:name>
+    <c:name>[Excel project.xlsx]pivot table!PivotTable4</c:name>
     <c:fmtId val="33"/>
   </c:pivotSource>
   <c:chart>
@@ -8682,54 +8556,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                    <a:tint val="94000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                    <a:shade val="78000"/>
-                    <a:satMod val="120000"/>
-                    <a:lumMod val="99000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8814,54 +8641,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="77000"/>
-                    <a:tint val="94000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="77000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="77000"/>
-                    <a:shade val="78000"/>
-                    <a:satMod val="120000"/>
-                    <a:lumMod val="99000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -15396,15 +15176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15433,16 +15213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15472,15 +15252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15510,15 +15290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15548,15 +15328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15586,18 +15366,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Gender_2">
@@ -15620,7 +15400,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15630,7 +15410,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10614660" y="5554981"/>
+              <a:off x="10713720" y="5509261"/>
               <a:ext cx="1828800" cy="1089659"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15664,18 +15444,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Age">
@@ -15698,7 +15478,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15708,7 +15488,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12595860" y="5547360"/>
+              <a:off x="12740640" y="5593080"/>
               <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15742,18 +15522,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Purchased Bike">
@@ -15776,7 +15556,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15786,7 +15566,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10591800" y="4328161"/>
+              <a:off x="10728960" y="4358641"/>
               <a:ext cx="1828800" cy="1059179"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15820,18 +15600,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Region">
@@ -15854,7 +15634,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15864,7 +15644,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12542520" y="4282441"/>
+              <a:off x="12733020" y="4320541"/>
               <a:ext cx="1828800" cy="1181099"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -34540,858 +34320,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F9EBED1-0845-4DB5-8C47-80A90531C8DA}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A68:D75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" numFmtId="165" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="15" subtotal="count" baseField="12" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="15" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="15" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="15" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="15" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0C8EAFD-A05D-4D10-B23F-6E50BB076B96}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="House Owners">
-  <location ref="A54:D58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Cars" fld="9" subtotal="count" baseField="8" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="18" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="33" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="33" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="33" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="33" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBF87A17-9211-4A6F-A9C9-E94BC3C79078}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="A36:C44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" dataField="1" numFmtId="164" showAll="0">
-      <items count="17">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="1" showAll="0">
-      <items count="54">
-        <item x="37"/>
-        <item x="22"/>
-        <item x="40"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item h="1" x="23"/>
-        <item h="1" x="21"/>
-        <item h="1" x="6"/>
-        <item h="1" x="17"/>
-        <item h="1" x="11"/>
-        <item h="1" x="4"/>
-        <item h="1" x="34"/>
-        <item h="1" x="13"/>
-        <item h="1" x="32"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="20"/>
-        <item h="1" x="12"/>
-        <item h="1" x="30"/>
-        <item h="1" x="15"/>
-        <item h="1" x="28"/>
-        <item h="1" x="38"/>
-        <item h="1" x="5"/>
-        <item h="1" x="36"/>
-        <item h="1" x="31"/>
-        <item h="1" x="39"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="16"/>
-        <item h="1" x="42"/>
-        <item h="1" x="7"/>
-        <item h="1" x="14"/>
-        <item h="1" x="2"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="18"/>
-        <item h="1" x="46"/>
-        <item h="1" x="27"/>
-        <item h="1" x="29"/>
-        <item h="1" x="41"/>
-        <item h="1" x="35"/>
-        <item h="1" x="45"/>
-        <item h="1" x="43"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="44"/>
-        <item h="1" x="48"/>
-        <item h="1" x="47"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="14"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="23" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="23" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="23" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Region">
-  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0">
-      <items count="17">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="54">
-        <item x="37"/>
-        <item x="22"/>
-        <item x="40"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item x="23"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="34"/>
-        <item x="13"/>
-        <item x="32"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="28"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="36"/>
-        <item x="31"/>
-        <item x="39"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="42"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="18"/>
-        <item x="46"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="41"/>
-        <item x="35"/>
-        <item x="45"/>
-        <item x="43"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="44"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="." fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="A20:D24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -35582,6 +34511,977 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F9EBED1-0845-4DB5-8C47-80A90531C8DA}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A68:D75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="165" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="15" subtotal="count" baseField="12" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0C8EAFD-A05D-4D10-B23F-6E50BB076B96}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="House Owners">
+  <location ref="A54:D58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Cars" fld="9" subtotal="count" baseField="8" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBF87A17-9211-4A6F-A9C9-E94BC3C79078}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="A36:C44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" dataField="1" numFmtId="164" showAll="0">
+      <items count="17">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="54">
+        <item x="37"/>
+        <item x="22"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item h="1" x="23"/>
+        <item h="1" x="21"/>
+        <item h="1" x="6"/>
+        <item h="1" x="17"/>
+        <item h="1" x="11"/>
+        <item h="1" x="4"/>
+        <item h="1" x="34"/>
+        <item h="1" x="13"/>
+        <item h="1" x="32"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="20"/>
+        <item h="1" x="12"/>
+        <item h="1" x="30"/>
+        <item h="1" x="15"/>
+        <item h="1" x="28"/>
+        <item h="1" x="38"/>
+        <item h="1" x="5"/>
+        <item h="1" x="36"/>
+        <item h="1" x="31"/>
+        <item h="1" x="39"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="16"/>
+        <item h="1" x="42"/>
+        <item h="1" x="7"/>
+        <item h="1" x="14"/>
+        <item h="1" x="2"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="18"/>
+        <item h="1" x="46"/>
+        <item h="1" x="27"/>
+        <item h="1" x="29"/>
+        <item h="1" x="41"/>
+        <item h="1" x="35"/>
+        <item h="1" x="45"/>
+        <item h="1" x="43"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="44"/>
+        <item h="1" x="48"/>
+        <item h="1" x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="23" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
+  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="17">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="54">
+        <item x="37"/>
+        <item x="22"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="34"/>
+        <item x="13"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="28"/>
+        <item x="38"/>
+        <item x="5"/>
+        <item x="36"/>
+        <item x="31"/>
+        <item x="39"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="42"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="46"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="45"/>
+        <item x="43"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="44"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="." fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender_2" xr10:uid="{50E5CE1D-A72A-4CB8-9029-A89DE57B9AE4}" sourceName="Gender_2">
   <pivotTables>
@@ -35649,13 +35549,13 @@
         <i x="27" s="1"/>
         <i x="29" s="1"/>
         <i x="41" s="1"/>
+        <i x="35" s="1"/>
+        <i x="45" s="1"/>
+        <i x="43" s="1"/>
+        <i x="51" s="1"/>
         <i x="49" s="1"/>
         <i x="50" s="1"/>
         <i x="44" s="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
         <i x="52" s="1" nd="1"/>
         <i x="48" s="1" nd="1"/>
         <i x="47" s="1" nd="1"/>
@@ -35673,7 +35573,7 @@
   <data>
     <tabular pivotCacheId="2122365811">
       <items count="2">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -35996,7 +35896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M75"/>
+  <dimension ref="A3:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P71" sqref="P71"/>
@@ -36004,9 +35904,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="6.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
@@ -36035,44 +35936,44 @@
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18">
-        <v>3370000</v>
-      </c>
-      <c r="C5" s="18">
-        <v>3370000</v>
+      <c r="B5" s="21">
+        <v>6250000</v>
+      </c>
+      <c r="C5" s="21">
+        <v>6250000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="18">
-        <v>7200000</v>
-      </c>
-      <c r="C6" s="18">
-        <v>7200000</v>
+      <c r="B6" s="21">
+        <v>17060000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>17060000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="18">
-        <v>4450000</v>
-      </c>
-      <c r="C7" s="18">
-        <v>4450000</v>
+      <c r="B7" s="21">
+        <v>7140000</v>
+      </c>
+      <c r="C7" s="21">
+        <v>7140000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18">
-        <v>15020000</v>
-      </c>
-      <c r="C8" s="18">
-        <v>15020000</v>
+      <c r="B8" s="21">
+        <v>30450000</v>
+      </c>
+      <c r="C8" s="21">
+        <v>30450000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -36101,13 +36002,13 @@
       <c r="A22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22">
         <v>13790000</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22">
         <v>13430000</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22">
         <v>27220000</v>
       </c>
     </row>
@@ -36115,13 +36016,13 @@
       <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23">
         <v>15430000</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23">
         <v>15020000</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23">
         <v>30450000</v>
       </c>
     </row>
@@ -36129,13 +36030,13 @@
       <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24">
         <v>29220000</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24">
         <v>28450000</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24">
         <v>57670000</v>
       </c>
     </row>
@@ -36170,10 +36071,10 @@
       <c r="A38" s="17">
         <v>25</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38">
         <v>70000</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38">
         <v>70000</v>
       </c>
     </row>
@@ -36181,10 +36082,10 @@
       <c r="A39" s="17">
         <v>26</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39">
         <v>150000</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39">
         <v>150000</v>
       </c>
     </row>
@@ -36192,10 +36093,10 @@
       <c r="A40" s="17">
         <v>27</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40">
         <v>480000</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40">
         <v>480000</v>
       </c>
     </row>
@@ -36203,10 +36104,10 @@
       <c r="A41" s="17">
         <v>28</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41">
         <v>380000</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41">
         <v>380000</v>
       </c>
     </row>
@@ -36214,10 +36115,10 @@
       <c r="A42" s="17">
         <v>29</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42">
         <v>450000</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42">
         <v>450000</v>
       </c>
     </row>
@@ -36225,10 +36126,10 @@
       <c r="A43" s="17">
         <v>30</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43">
         <v>660000</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43">
         <v>660000</v>
       </c>
     </row>
@@ -36236,32 +36137,17 @@
       <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44">
         <v>2190000</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44">
         <v>2190000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="18"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>45</v>
       </c>
@@ -36269,7 +36155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>46</v>
       </c>
@@ -36283,45 +36169,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56">
         <v>100</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56">
         <v>229</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56">
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57">
         <v>449</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57">
         <v>248</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57">
         <v>697</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58">
         <v>549</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58">
         <v>477</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58">
         <v>1026</v>
       </c>
     </row>
@@ -36348,86 +36234,86 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="A70" s="19">
         <v>0.5</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70">
         <v>171</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70">
         <v>207</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70">
         <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="A71" s="19">
         <v>1.5</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71">
         <v>93</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71">
         <v>83</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="A72" s="19">
         <v>3.5</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72">
         <v>67</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72">
         <v>95</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="A73" s="19">
         <v>7.5</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73">
         <v>120</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73">
         <v>77</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73">
         <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
-        <v>12</v>
-      </c>
-      <c r="B74" s="18">
+      <c r="A74" s="19">
+        <v>12</v>
+      </c>
+      <c r="B74">
         <v>80</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74">
         <v>33</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74">
         <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75">
         <v>531</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75">
         <v>495</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75">
         <v>1026</v>
       </c>
     </row>
@@ -36439,10 +36325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5F000E-7961-41BC-8271-2816959258BD}">
-  <dimension ref="E1:R5"/>
+  <dimension ref="E2:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36450,86 +36336,74 @@
     <col min="15" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-    </row>
     <row r="2" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IMkRb/YKxjTqXe/VPib1wFXjFyj5O57npx04Az0fF52gz/0TygRpjT8mAx/et2XwXJ6vHYKr1zNqY9wL1wX/qg==" saltValue="vmYR6Hdbah815D5tcMTdsg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="E2:R5"/>
   </mergeCells>
@@ -85014,14 +84888,14 @@
         <v>12</v>
       </c>
       <c r="B898" s="1" t="str">
-        <f t="shared" ref="B898:B961" si="56">LOWER(A898)</f>
+        <f t="shared" ref="B898:B947" si="56">LOWER(A898)</f>
         <v>m</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D898" s="1" t="str">
-        <f t="shared" ref="D898:D961" si="57">LOWER(C898)</f>
+        <f t="shared" ref="D898:D947" si="57">LOWER(C898)</f>
         <v>f</v>
       </c>
       <c r="E898" s="3">
@@ -85046,11 +84920,11 @@
         <v>26</v>
       </c>
       <c r="L898" s="1" t="str">
-        <f t="shared" ref="L898:L961" si="58">TRIM(K898)</f>
+        <f t="shared" ref="L898:L947" si="58">TRIM(K898)</f>
         <v>1-2 Miles</v>
       </c>
       <c r="M898" s="12">
-        <f t="shared" ref="M898:M961" si="59">IF(L898="0-1 Miles", 0.5,IF(L898="1-2 Miles", 1.5,IF(L898="2-5 Miles", 3.5, IF(L898="5-10 Miles", 7.5, IF(L898="10+ Miles", 12, NA())))))</f>
+        <f t="shared" ref="M898:M947" si="59">IF(L898="0-1 Miles", 0.5,IF(L898="1-2 Miles", 1.5,IF(L898="2-5 Miles", 3.5, IF(L898="5-10 Miles", 7.5, IF(L898="10+ Miles", 12, NA())))))</f>
         <v>1.5</v>
       </c>
       <c r="N898" s="10" t="s">
